--- a/Excel_files/tests/t1.xlsx
+++ b/Excel_files/tests/t1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,21 +20,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+  <si>
+    <t xml:space="preserve">Long_Desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDB_No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water_(g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energ_Kcal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein_(g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lipid_Tot_(g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ash_(g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbohydrt_(g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiber_TD_(g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar_Tot_(g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcium_(mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron_(mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnesium_(mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphorus_(mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potassium_(mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodium_(mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinc_(mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copper_mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manganese_(mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenium_(µg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vit_C_(mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiamin_(mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riboflavin_(mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niacin_(mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panto_Acid_mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vit_B6_(mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folate_Tot_(µg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folic_Acid_(µg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food_Folate_(µg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folate_DFE_(µg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choline_Tot_ (mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vit_B12_(µg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vit_A_IU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vit_A_RAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retinol_(µg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha_Carot_(µg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Carot_(µg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta_Crypt_(µg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lycopene_(µg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lut+Zea_ (µg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vit_E_(mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vit_D_µg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vit_D_IU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vit_K_(µg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA_Sat_(g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA_Mono_(g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA_Poly_(g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cholestrl_(mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GmWt_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GmWt_Desc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GmWt_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GmWt_Desc2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuse_Pct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mollusks, abalone, mixed species, raw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mollusks, abalone, mixed species, cooked, fried</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abiyuch, raw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.5 cup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acerola juice, raw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 fl oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acerola, (west indian cherry), raw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 fruit, without refuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banana cake, made with sugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 oz</t>
   </si>
 </sst>
 </file>
@@ -44,11 +224,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -65,6 +246,19 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -74,12 +268,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -108,8 +309,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -130,76 +339,926 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:BA7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
+      <c r="A2" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1</v>
+        <v>15155</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>74.56</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS2" s="0" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="AT2" s="0" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="AU2" s="0" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="AV2" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="AW2" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="AX2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>15156</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>284</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>591</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>2</v>
+      <c r="AS3" s="0" t="n">
+        <v>1.646</v>
+      </c>
+      <c r="AT3" s="0" t="n">
+        <v>2.741</v>
+      </c>
+      <c r="AU3" s="0" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="AV3" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="AW3" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="AX3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
+      <c r="A4" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>3</v>
+        <v>9427</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3</v>
+        <v>79.9</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>8.55</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>304</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS4" s="0" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AW4" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="AX4" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
+      <c r="A5" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>4</v>
+        <v>9002</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>4</v>
+        <v>94.3</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>1600</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="0" t="n">
+        <v>509</v>
+      </c>
+      <c r="AH5" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="0" t="n">
+        <v>305</v>
+      </c>
+      <c r="AL5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO5" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AR5" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS5" s="0" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="AT5" s="0" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="AU5" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AV5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="AX5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY5" s="0" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="AZ5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>9001</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>91.41</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>1677.6</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>767</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="0" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="AT6" s="0" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="AU6" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AV6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AX6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY6" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AZ6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA6" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>12060</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>30.17</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>54.65</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>712</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>0.688</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="0" t="n">
+        <v>3.923</v>
+      </c>
+      <c r="AT7" s="0" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="AU7" s="0" t="n">
+        <v>5.813</v>
+      </c>
+      <c r="AV7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="0" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="AX7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
